--- a/biology/Zoologie/Blaberus/Blaberus.xlsx
+++ b/biology/Zoologie/Blaberus/Blaberus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Blaberus est représenté par de grandes espèces de blattes. Elles vivent en forêt où le jour, elles se cachent sous les feuilles et branchages tombés au sol. Comme toutes les blattes elles sont lucifuges.
 Blattes omnivores, elles se nourrissent principalement de feuilles, fruits, détritus, cadavres d'insectes morts et pratiquent parfois le cannibalisme quand elles sont en trop grand nombre dans un endroit restreint, surtout lors des mues. 
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>19 espèces valides selon BioLib                    (24 mars 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19 espèces valides selon BioLib                    (24 mars 2018) :
 Blaberus affinis Jurberg, Albuquerque, Rebordoes, Goncalves &amp; Felip, 1977
 Blaberus anisitsi Brancsik, 1898
 Blaberus asellus (Thunberg, 1826)
@@ -562,7 +576,9 @@
           <t>Note taxonomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bien que très populaire l'appellation Blaberus fusca (ou fuscus) Brunner von Wattenwyl, 1865, est une synonymie de Blaberus craniifer Burmeister, 1838 ; Blaberus fusca étant un taxon junior, il est donc non valide.</t>
         </is>
